--- a/satellite/csv-js/qc_latlong1.xlsx
+++ b/satellite/csv-js/qc_latlong1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="qc_latlong1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A2042" workbookViewId="0">
+      <selection activeCell="H1035" sqref="H1035:H2066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32867,6193 +32867,6193 @@
         <v>14.656988808527148</v>
       </c>
       <c r="H1035" t="str">
-        <f>CONCATENATE(N2,P2,O2)</f>
+        <f t="shared" ref="H1035:H1098" si="35">CONCATENATE(N2,P2,O2)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1036" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1036" t="str">
-        <f>CONCATENATE(N3,P3,O3)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1037" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1037" t="str">
-        <f>CONCATENATE(N4,P4,O4)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1038" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1038" t="str">
-        <f>CONCATENATE(N5,P5,O5)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1039" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1039" t="str">
-        <f>CONCATENATE(N6,P6,O6)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1040" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H1040" t="str">
-        <f>CONCATENATE(N7,P7,O7)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1041" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1041" t="str">
-        <f>CONCATENATE(N8,P8,O8)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1042" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1042" t="str">
-        <f>CONCATENATE(N9,P9,O9)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1043" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1043" t="str">
-        <f>CONCATENATE(N10,P10,O10)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1044" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1044" t="str">
-        <f>CONCATENATE(N11,P11,O11)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1045" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1045" t="str">
-        <f>CONCATENATE(N12,P12,O12)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1046" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1046" t="str">
-        <f>CONCATENATE(N13,P13,O13)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1047" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1047" t="str">
-        <f>CONCATENATE(N14,P14,O14)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1048" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048" t="str">
-        <f>CONCATENATE(N15,P15,O15)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1049" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1049" t="str">
-        <f>CONCATENATE(N16,P16,O16)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1050" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1050" t="str">
-        <f>CONCATENATE(N17,P17,O17)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1051" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1051" t="str">
-        <f>CONCATENATE(N18,P18,O18)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1052" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1052" t="str">
-        <f>CONCATENATE(N19,P19,O19)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1053" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1053" t="str">
-        <f>CONCATENATE(N20,P20,O20)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1054" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1054" t="str">
-        <f>CONCATENATE(N21,P21,O21)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1055" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1055" t="str">
-        <f>CONCATENATE(N22,P22,O22)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1056" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1056" t="str">
-        <f>CONCATENATE(N23,P23,O23)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1057" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1057" t="str">
-        <f>CONCATENATE(N24,P24,O24)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1058" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1058" t="str">
-        <f>CONCATENATE(N25,P25,O25)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1059" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1059" t="str">
-        <f>CONCATENATE(N26,P26,O26)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1060" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1060" t="str">
-        <f>CONCATENATE(N27,P27,O27)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1061" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1061" t="str">
-        <f>CONCATENATE(N28,P28,O28)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1062" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1062" t="str">
-        <f>CONCATENATE(N29,P29,O29)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1063" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1063" t="str">
-        <f>CONCATENATE(N30,P30,O30)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1064" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1064" t="str">
-        <f>CONCATENATE(N31,P31,O31)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1065" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1065" t="str">
-        <f>CONCATENATE(N32,P32,O32)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1066" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1066" t="str">
-        <f>CONCATENATE(N33,P33,O33)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1067" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1067" t="str">
-        <f>CONCATENATE(N34,P34,O34)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1068" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1068" t="str">
-        <f>CONCATENATE(N35,P35,O35)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1069" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1069" t="str">
-        <f>CONCATENATE(N36,P36,O36)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1070" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1070" t="str">
-        <f>CONCATENATE(N37,P37,O37)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1071" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1071" t="str">
-        <f>CONCATENATE(N38,P38,O38)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1072" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1072" t="str">
-        <f>CONCATENATE(N39,P39,O39)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1073" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1073" t="str">
-        <f>CONCATENATE(N40,P40,O40)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1074" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1074" t="str">
-        <f>CONCATENATE(N41,P41,O41)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1075" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1075" t="str">
-        <f>CONCATENATE(N42,P42,O42)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1076" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1076" t="str">
-        <f>CONCATENATE(N43,P43,O43)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1077" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1077" t="str">
-        <f>CONCATENATE(N44,P44,O44)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1078" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1078" t="str">
-        <f>CONCATENATE(N45,P45,O45)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1079" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1079" t="str">
-        <f>CONCATENATE(N46,P46,O46)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1080" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1080" t="str">
-        <f>CONCATENATE(N47,P47,O47)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1081" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1081" t="str">
-        <f>CONCATENATE(N48,P48,O48)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1082" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1082" t="str">
-        <f>CONCATENATE(N49,P49,O49)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1083" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1083" t="str">
-        <f>CONCATENATE(N50,P50,O50)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1084" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1084" t="str">
-        <f>CONCATENATE(N51,P51,O51)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1085" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1085" t="str">
-        <f>CONCATENATE(N52,P52,O52)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1086" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1086" t="str">
-        <f>CONCATENATE(N53,P53,O53)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1087" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1087" t="str">
-        <f>CONCATENATE(N54,P54,O54)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1088" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1088" t="str">
-        <f>CONCATENATE(N55,P55,O55)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1089" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1089" t="str">
-        <f>CONCATENATE(N56,P56,O56)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1090" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1090" t="str">
-        <f>CONCATENATE(N57,P57,O57)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1091" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1091" t="str">
-        <f>CONCATENATE(N58,P58,O58)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1092" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1092" t="str">
-        <f>CONCATENATE(N59,P59,O59)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1093" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1093" t="str">
-        <f>CONCATENATE(N60,P60,O60)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1094" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1094" t="str">
-        <f>CONCATENATE(N61,P61,O61)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1095" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1095" t="str">
-        <f>CONCATENATE(N62,P62,O62)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1096" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1096" t="str">
-        <f>CONCATENATE(N63,P63,O63)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1097" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1097" t="str">
-        <f>CONCATENATE(N64,P64,O64)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1098" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1098" t="str">
-        <f>CONCATENATE(N65,P65,O65)</f>
+        <f t="shared" si="35"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1099" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1099" t="str">
-        <f>CONCATENATE(N66,P66,O66)</f>
+        <f t="shared" ref="H1099:H1162" si="36">CONCATENATE(N66,P66,O66)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1100" t="str">
-        <f>CONCATENATE(N67,P67,O67)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1101" t="str">
-        <f>CONCATENATE(N68,P68,O68)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1102" t="str">
-        <f>CONCATENATE(N69,P69,O69)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1103" t="str">
-        <f>CONCATENATE(N70,P70,O70)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1104" t="str">
-        <f>CONCATENATE(N71,P71,O71)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1105" t="str">
-        <f>CONCATENATE(N72,P72,O72)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1106" t="str">
-        <f>CONCATENATE(N73,P73,O73)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1107" t="str">
-        <f>CONCATENATE(N74,P74,O74)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1108" t="str">
-        <f>CONCATENATE(N75,P75,O75)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1109" t="str">
-        <f>CONCATENATE(N76,P76,O76)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1110" t="str">
-        <f>CONCATENATE(N77,P77,O77)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1111" t="str">
-        <f>CONCATENATE(N78,P78,O78)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1112" t="str">
-        <f>CONCATENATE(N79,P79,O79)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1113" t="str">
-        <f>CONCATENATE(N80,P80,O80)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1114" t="str">
-        <f>CONCATENATE(N81,P81,O81)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1115" t="str">
-        <f>CONCATENATE(N82,P82,O82)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1116" t="str">
-        <f>CONCATENATE(N83,P83,O83)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1117" t="str">
-        <f>CONCATENATE(N84,P84,O84)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1118" t="str">
-        <f>CONCATENATE(N85,P85,O85)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1119" t="str">
-        <f>CONCATENATE(N86,P86,O86)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1120" t="str">
-        <f>CONCATENATE(N87,P87,O87)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1121" t="str">
-        <f>CONCATENATE(N88,P88,O88)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1122" t="str">
-        <f>CONCATENATE(N89,P89,O89)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1123" t="str">
-        <f>CONCATENATE(N90,P90,O90)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1124" t="str">
-        <f>CONCATENATE(N91,P91,O91)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1125" t="str">
-        <f>CONCATENATE(N92,P92,O92)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1126" t="str">
-        <f>CONCATENATE(N93,P93,O93)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1127" t="str">
-        <f>CONCATENATE(N94,P94,O94)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1128" t="str">
-        <f>CONCATENATE(N95,P95,O95)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1129" t="str">
-        <f>CONCATENATE(N96,P96,O96)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1130" t="str">
-        <f>CONCATENATE(N97,P97,O97)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1131" t="str">
-        <f>CONCATENATE(N98,P98,O98)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1132" t="str">
-        <f>CONCATENATE(N99,P99,O99)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1133" t="str">
-        <f>CONCATENATE(N100,P100,O100)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1134" t="str">
-        <f>CONCATENATE(N101,P101,O101)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1135" t="str">
-        <f>CONCATENATE(N102,P102,O102)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1136" t="str">
-        <f>CONCATENATE(N103,P103,O103)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1137" t="str">
-        <f>CONCATENATE(N104,P104,O104)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1138" t="str">
-        <f>CONCATENATE(N105,P105,O105)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1139" t="str">
-        <f>CONCATENATE(N106,P106,O106)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1140" t="str">
-        <f>CONCATENATE(N107,P107,O107)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1141" t="str">
-        <f>CONCATENATE(N108,P108,O108)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1142" t="str">
-        <f>CONCATENATE(N109,P109,O109)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
     <row r="1143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1143" t="str">
-        <f>CONCATENATE(N110,P110,O110)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1144" t="str">
-        <f>CONCATENATE(N111,P111,O111)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1145" t="str">
-        <f>CONCATENATE(N112,P112,O112)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1146" t="str">
-        <f>CONCATENATE(N113,P113,O113)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1147" t="str">
-        <f>CONCATENATE(N114,P114,O114)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1148" t="str">
-        <f>CONCATENATE(N115,P115,O115)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1149" t="str">
-        <f>CONCATENATE(N116,P116,O116)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1150" t="str">
-        <f>CONCATENATE(N117,P117,O117)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1151" t="str">
-        <f>CONCATENATE(N118,P118,O118)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1152" t="str">
-        <f>CONCATENATE(N119,P119,O119)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1153" t="str">
-        <f>CONCATENATE(N120,P120,O120)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1154" t="str">
-        <f>CONCATENATE(N121,P121,O121)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1155" t="str">
-        <f>CONCATENATE(N122,P122,O122)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1156" t="str">
-        <f>CONCATENATE(N123,P123,O123)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1157" t="str">
-        <f>CONCATENATE(N124,P124,O124)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1158" t="str">
-        <f>CONCATENATE(N125,P125,O125)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1159" t="str">
-        <f>CONCATENATE(N126,P126,O126)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1160" t="str">
-        <f>CONCATENATE(N127,P127,O127)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1161" t="str">
-        <f>CONCATENATE(N128,P128,O128)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1162" t="str">
-        <f>CONCATENATE(N129,P129,O129)</f>
+        <f t="shared" si="36"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1163" t="str">
-        <f>CONCATENATE(N130,P130,O130)</f>
+        <f t="shared" ref="H1163:H1226" si="37">CONCATENATE(N130,P130,O130)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1164" t="str">
-        <f>CONCATENATE(N131,P131,O131)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1165" t="str">
-        <f>CONCATENATE(N132,P132,O132)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1166" t="str">
-        <f>CONCATENATE(N133,P133,O133)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1167" t="str">
-        <f>CONCATENATE(N134,P134,O134)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1168" t="str">
-        <f>CONCATENATE(N135,P135,O135)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1169" t="str">
-        <f>CONCATENATE(N136,P136,O136)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1170" t="str">
-        <f>CONCATENATE(N137,P137,O137)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1171" t="str">
-        <f>CONCATENATE(N138,P138,O138)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1172" t="str">
-        <f>CONCATENATE(N139,P139,O139)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1173" t="str">
-        <f>CONCATENATE(N140,P140,O140)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1174" t="str">
-        <f>CONCATENATE(N141,P141,O141)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1175" t="str">
-        <f>CONCATENATE(N142,P142,O142)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1176" t="str">
-        <f>CONCATENATE(N143,P143,O143)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1177" t="str">
-        <f>CONCATENATE(N144,P144,O144)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1178" t="str">
-        <f>CONCATENATE(N145,P145,O145)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1179" t="str">
-        <f>CONCATENATE(N146,P146,O146)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1180" t="str">
-        <f>CONCATENATE(N147,P147,O147)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1181" t="str">
-        <f>CONCATENATE(N148,P148,O148)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1182" t="str">
-        <f>CONCATENATE(N149,P149,O149)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1183" t="str">
-        <f>CONCATENATE(N150,P150,O150)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1184" t="str">
-        <f>CONCATENATE(N151,P151,O151)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1185" t="str">
-        <f>CONCATENATE(N152,P152,O152)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1186" t="str">
-        <f>CONCATENATE(N153,P153,O153)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1187" t="str">
-        <f>CONCATENATE(N154,P154,O154)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1188" t="str">
-        <f>CONCATENATE(N155,P155,O155)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1189" t="str">
-        <f>CONCATENATE(N156,P156,O156)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1190" t="str">
-        <f>CONCATENATE(N157,P157,O157)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1191" t="str">
-        <f>CONCATENATE(N158,P158,O158)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1192" t="str">
-        <f>CONCATENATE(N159,P159,O159)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1193" t="str">
-        <f>CONCATENATE(N160,P160,O160)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1194" t="str">
-        <f>CONCATENATE(N161,P161,O161)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1195" t="str">
-        <f>CONCATENATE(N162,P162,O162)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1196" t="str">
-        <f>CONCATENATE(N163,P163,O163)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1197" t="str">
-        <f>CONCATENATE(N164,P164,O164)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1198" t="str">
-        <f>CONCATENATE(N165,P165,O165)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1199" t="str">
-        <f>CONCATENATE(N166,P166,O166)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1200" t="str">
-        <f>CONCATENATE(N167,P167,O167)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1201" t="str">
-        <f>CONCATENATE(N168,P168,O168)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1202" t="str">
-        <f>CONCATENATE(N169,P169,O169)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1203" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1203" t="str">
-        <f>CONCATENATE(N170,P170,O170)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1204" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1204" t="str">
-        <f>CONCATENATE(N171,P171,O171)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1205" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1205" t="str">
-        <f>CONCATENATE(N172,P172,O172)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1206" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1206" t="str">
-        <f>CONCATENATE(N173,P173,O173)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1207" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1207" t="str">
-        <f>CONCATENATE(N174,P174,O174)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1208" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1208" t="str">
-        <f>CONCATENATE(N175,P175,O175)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1209" t="str">
-        <f>CONCATENATE(N176,P176,O176)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1210" t="str">
-        <f>CONCATENATE(N177,P177,O177)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1211" t="str">
-        <f>CONCATENATE(N178,P178,O178)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1212" t="str">
-        <f>CONCATENATE(N179,P179,O179)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1213" t="str">
-        <f>CONCATENATE(N180,P180,O180)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1214" t="str">
-        <f>CONCATENATE(N181,P181,O181)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1215" t="str">
-        <f>CONCATENATE(N182,P182,O182)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1216" t="str">
-        <f>CONCATENATE(N183,P183,O183)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1217" t="str">
-        <f>CONCATENATE(N184,P184,O184)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1218" t="str">
-        <f>CONCATENATE(N185,P185,O185)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1219" t="str">
-        <f>CONCATENATE(N186,P186,O186)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1220" t="str">
-        <f>CONCATENATE(N187,P187,O187)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1221" t="str">
-        <f>CONCATENATE(N188,P188,O188)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1222" t="str">
-        <f>CONCATENATE(N189,P189,O189)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1223" t="str">
-        <f>CONCATENATE(N190,P190,O190)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1224" t="str">
-        <f>CONCATENATE(N191,P191,O191)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1225" t="str">
-        <f>CONCATENATE(N192,P192,O192)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1226" t="str">
-        <f>CONCATENATE(N193,P193,O193)</f>
+        <f t="shared" si="37"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1227" t="str">
-        <f>CONCATENATE(N194,P194,O194)</f>
+        <f t="shared" ref="H1227:H1290" si="38">CONCATENATE(N194,P194,O194)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1228" t="str">
-        <f>CONCATENATE(N195,P195,O195)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1229" t="str">
-        <f>CONCATENATE(N196,P196,O196)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1230" t="str">
-        <f>CONCATENATE(N197,P197,O197)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1231" t="str">
-        <f>CONCATENATE(N198,P198,O198)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1232" t="str">
-        <f>CONCATENATE(N199,P199,O199)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1233" t="str">
-        <f>CONCATENATE(N200,P200,O200)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1234" t="str">
-        <f>CONCATENATE(N201,P201,O201)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1235" t="str">
-        <f>CONCATENATE(N202,P202,O202)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1236" t="str">
-        <f>CONCATENATE(N203,P203,O203)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1237" t="str">
-        <f>CONCATENATE(N204,P204,O204)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1238" t="str">
-        <f>CONCATENATE(N205,P205,O205)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1239" t="str">
-        <f>CONCATENATE(N206,P206,O206)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1240" t="str">
-        <f>CONCATENATE(N207,P207,O207)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1241" t="str">
-        <f>CONCATENATE(N208,P208,O208)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1242" t="str">
-        <f>CONCATENATE(N209,P209,O209)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1243" t="str">
-        <f>CONCATENATE(N210,P210,O210)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1244" t="str">
-        <f>CONCATENATE(N211,P211,O211)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1245" t="str">
-        <f>CONCATENATE(N212,P212,O212)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1246" t="str">
-        <f>CONCATENATE(N213,P213,O213)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1247" t="str">
-        <f>CONCATENATE(N214,P214,O214)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1248" t="str">
-        <f>CONCATENATE(N215,P215,O215)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1249" t="str">
-        <f>CONCATENATE(N216,P216,O216)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1250" t="str">
-        <f>CONCATENATE(N217,P217,O217)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1251" t="str">
-        <f>CONCATENATE(N218,P218,O218)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1252" t="str">
-        <f>CONCATENATE(N219,P219,O219)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1253" t="str">
-        <f>CONCATENATE(N220,P220,O220)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1254" t="str">
-        <f>CONCATENATE(N221,P221,O221)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1255" t="str">
-        <f>CONCATENATE(N222,P222,O222)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1256" t="str">
-        <f>CONCATENATE(N223,P223,O223)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1257" t="str">
-        <f>CONCATENATE(N224,P224,O224)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1258" t="str">
-        <f>CONCATENATE(N225,P225,O225)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1259" t="str">
-        <f>CONCATENATE(N226,P226,O226)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1260" t="str">
-        <f>CONCATENATE(N227,P227,O227)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1261" t="str">
-        <f>CONCATENATE(N228,P228,O228)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1262" t="str">
-        <f>CONCATENATE(N229,P229,O229)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1263" t="str">
-        <f>CONCATENATE(N230,P230,O230)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1264" t="str">
-        <f>CONCATENATE(N231,P231,O231)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1265" t="str">
-        <f>CONCATENATE(N232,P232,O232)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1266" t="str">
-        <f>CONCATENATE(N233,P233,O233)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1267" t="str">
-        <f>CONCATENATE(N234,P234,O234)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1268" t="str">
-        <f>CONCATENATE(N235,P235,O235)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1269" t="str">
-        <f>CONCATENATE(N236,P236,O236)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1270" t="str">
-        <f>CONCATENATE(N237,P237,O237)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1271" t="str">
-        <f>CONCATENATE(N238,P238,O238)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1272" t="str">
-        <f>CONCATENATE(N239,P239,O239)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1273" t="str">
-        <f>CONCATENATE(N240,P240,O240)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1274" t="str">
-        <f>CONCATENATE(N241,P241,O241)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1275" t="str">
-        <f>CONCATENATE(N242,P242,O242)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1276" t="str">
-        <f>CONCATENATE(N243,P243,O243)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1277" t="str">
-        <f>CONCATENATE(N244,P244,O244)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1278" t="str">
-        <f>CONCATENATE(N245,P245,O245)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1279" t="str">
-        <f>CONCATENATE(N246,P246,O246)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1280" t="str">
-        <f>CONCATENATE(N247,P247,O247)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1281" t="str">
-        <f>CONCATENATE(N248,P248,O248)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1282" t="str">
-        <f>CONCATENATE(N249,P249,O249)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1283" t="str">
-        <f>CONCATENATE(N250,P250,O250)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1284" t="str">
-        <f>CONCATENATE(N251,P251,O251)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1285" t="str">
-        <f>CONCATENATE(N252,P252,O252)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1286" t="str">
-        <f>CONCATENATE(N253,P253,O253)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1287" t="str">
-        <f>CONCATENATE(N254,P254,O254)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1288" t="str">
-        <f>CONCATENATE(N255,P255,O255)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1289" t="str">
-        <f>CONCATENATE(N256,P256,O256)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1290" t="str">
-        <f>CONCATENATE(N257,P257,O257)</f>
+        <f t="shared" si="38"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1291" t="str">
-        <f>CONCATENATE(N258,P258,O258)</f>
+        <f t="shared" ref="H1291:H1354" si="39">CONCATENATE(N258,P258,O258)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1292" t="str">
-        <f>CONCATENATE(N259,P259,O259)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1293" t="str">
-        <f>CONCATENATE(N260,P260,O260)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1294" t="str">
-        <f>CONCATENATE(N261,P261,O261)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1295" t="str">
-        <f>CONCATENATE(N262,P262,O262)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1296" t="str">
-        <f>CONCATENATE(N263,P263,O263)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1297" t="str">
-        <f>CONCATENATE(N264,P264,O264)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1298" t="str">
-        <f>CONCATENATE(N265,P265,O265)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1299" t="str">
-        <f>CONCATENATE(N266,P266,O266)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1300" t="str">
-        <f>CONCATENATE(N267,P267,O267)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1301" t="str">
-        <f>CONCATENATE(N268,P268,O268)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1302" t="str">
-        <f>CONCATENATE(N269,P269,O269)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1303" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1303" t="str">
-        <f>CONCATENATE(N270,P270,O270)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1304" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1304" t="str">
-        <f>CONCATENATE(N271,P271,O271)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1305" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1305" t="str">
-        <f>CONCATENATE(N272,P272,O272)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1306" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1306" t="str">
-        <f>CONCATENATE(N273,P273,O273)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1307" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1307" t="str">
-        <f>CONCATENATE(N274,P274,O274)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1308" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1308" t="str">
-        <f>CONCATENATE(N275,P275,O275)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1309" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1309" t="str">
-        <f>CONCATENATE(N276,P276,O276)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1310" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1310" t="str">
-        <f>CONCATENATE(N277,P277,O277)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1311" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1311" t="str">
-        <f>CONCATENATE(N278,P278,O278)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1312" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1312" t="str">
-        <f>CONCATENATE(N279,P279,O279)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1313" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1313" t="str">
-        <f>CONCATENATE(N280,P280,O280)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1314" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1314" t="str">
-        <f>CONCATENATE(N281,P281,O281)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1315" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1315" t="str">
-        <f>CONCATENATE(N282,P282,O282)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1316" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1316" t="str">
-        <f>CONCATENATE(N283,P283,O283)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1317" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1317" t="str">
-        <f>CONCATENATE(N284,P284,O284)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1318" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1318" t="str">
-        <f>CONCATENATE(N285,P285,O285)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1319" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1319" t="str">
-        <f>CONCATENATE(N286,P286,O286)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1320" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1320" t="str">
-        <f>CONCATENATE(N287,P287,O287)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1321" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1321" t="str">
-        <f>CONCATENATE(N288,P288,O288)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1322" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1322" t="str">
-        <f>CONCATENATE(N289,P289,O289)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1323" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1323" t="str">
-        <f>CONCATENATE(N290,P290,O290)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1324" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1324" t="str">
-        <f>CONCATENATE(N291,P291,O291)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1325" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1325" t="str">
-        <f>CONCATENATE(N292,P292,O292)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1326" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1326" t="str">
-        <f>CONCATENATE(N293,P293,O293)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1327" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1327" t="str">
-        <f>CONCATENATE(N294,P294,O294)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1328" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1328" t="str">
-        <f>CONCATENATE(N295,P295,O295)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1329" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1329" t="str">
-        <f>CONCATENATE(N296,P296,O296)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1330" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1330" t="str">
-        <f>CONCATENATE(N297,P297,O297)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1331" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1331" t="str">
-        <f>CONCATENATE(N298,P298,O298)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1332" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1332" t="str">
-        <f>CONCATENATE(N299,P299,O299)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1333" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1333" t="str">
-        <f>CONCATENATE(N300,P300,O300)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1334" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1334" t="str">
-        <f>CONCATENATE(N301,P301,O301)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1335" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1335" t="str">
-        <f>CONCATENATE(N302,P302,O302)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1336" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1336" t="str">
-        <f>CONCATENATE(N303,P303,O303)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1337" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1337" t="str">
-        <f>CONCATENATE(N304,P304,O304)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1338" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1338" t="str">
-        <f>CONCATENATE(N305,P305,O305)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1339" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1339" t="str">
-        <f>CONCATENATE(N306,P306,O306)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1340" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1340" t="str">
-        <f>CONCATENATE(N307,P307,O307)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1341" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1341" t="str">
-        <f>CONCATENATE(N308,P308,O308)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1342" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1342" t="str">
-        <f>CONCATENATE(N309,P309,O309)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1343" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1343" t="str">
-        <f>CONCATENATE(N310,P310,O310)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1344" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1344" t="str">
-        <f>CONCATENATE(N311,P311,O311)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1345" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1345" t="str">
-        <f>CONCATENATE(N312,P312,O312)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1346" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1346" t="str">
-        <f>CONCATENATE(N313,P313,O313)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1347" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1347" t="str">
-        <f>CONCATENATE(N314,P314,O314)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1348" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1348" t="str">
-        <f>CONCATENATE(N315,P315,O315)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1349" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1349" t="str">
-        <f>CONCATENATE(N316,P316,O316)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1350" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1350" t="str">
-        <f>CONCATENATE(N317,P317,O317)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1351" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1351" t="str">
-        <f>CONCATENATE(N318,P318,O318)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1352" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1352" t="str">
-        <f>CONCATENATE(N319,P319,O319)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1353" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1353" t="str">
-        <f>CONCATENATE(N320,P320,O320)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1354" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1354" t="str">
-        <f>CONCATENATE(N321,P321,O321)</f>
+        <f t="shared" si="39"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1355" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1355" t="str">
-        <f>CONCATENATE(N322,P322,O322)</f>
+        <f t="shared" ref="H1355:H1418" si="40">CONCATENATE(N322,P322,O322)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1356" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1356" t="str">
-        <f>CONCATENATE(N323,P323,O323)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1357" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1357" t="str">
-        <f>CONCATENATE(N324,P324,O324)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1358" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1358" t="str">
-        <f>CONCATENATE(N325,P325,O325)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1359" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1359" t="str">
-        <f>CONCATENATE(N326,P326,O326)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1360" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1360" t="str">
-        <f>CONCATENATE(N327,P327,O327)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1361" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1361" t="str">
-        <f>CONCATENATE(N328,P328,O328)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1362" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1362" t="str">
-        <f>CONCATENATE(N329,P329,O329)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1363" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1363" t="str">
-        <f>CONCATENATE(N330,P330,O330)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1364" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1364" t="str">
-        <f>CONCATENATE(N331,P331,O331)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1365" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1365" t="str">
-        <f>CONCATENATE(N332,P332,O332)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1366" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1366" t="str">
-        <f>CONCATENATE(N333,P333,O333)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1367" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1367" t="str">
-        <f>CONCATENATE(N334,P334,O334)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1368" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1368" t="str">
-        <f>CONCATENATE(N335,P335,O335)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1369" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1369" t="str">
-        <f>CONCATENATE(N336,P336,O336)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1370" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1370" t="str">
-        <f>CONCATENATE(N337,P337,O337)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1371" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1371" t="str">
-        <f>CONCATENATE(N338,P338,O338)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1372" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1372" t="str">
-        <f>CONCATENATE(N339,P339,O339)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1373" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1373" t="str">
-        <f>CONCATENATE(N340,P340,O340)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1374" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1374" t="str">
-        <f>CONCATENATE(N341,P341,O341)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1375" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1375" t="str">
-        <f>CONCATENATE(N342,P342,O342)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1376" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1376" t="str">
-        <f>CONCATENATE(N343,P343,O343)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1377" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1377" t="str">
-        <f>CONCATENATE(N344,P344,O344)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1378" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1378" t="str">
-        <f>CONCATENATE(N345,P345,O345)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1379" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1379" t="str">
-        <f>CONCATENATE(N346,P346,O346)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1380" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1380" t="str">
-        <f>CONCATENATE(N347,P347,O347)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1381" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1381" t="str">
-        <f>CONCATENATE(N348,P348,O348)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1382" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1382" t="str">
-        <f>CONCATENATE(N349,P349,O349)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1383" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1383" t="str">
-        <f>CONCATENATE(N350,P350,O350)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1384" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1384" t="str">
-        <f>CONCATENATE(N351,P351,O351)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1385" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1385" t="str">
-        <f>CONCATENATE(N352,P352,O352)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1386" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1386" t="str">
-        <f>CONCATENATE(N353,P353,O353)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1387" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1387" t="str">
-        <f>CONCATENATE(N354,P354,O354)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1388" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1388" t="str">
-        <f>CONCATENATE(N355,P355,O355)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1389" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1389" t="str">
-        <f>CONCATENATE(N356,P356,O356)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1390" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1390" t="str">
-        <f>CONCATENATE(N357,P357,O357)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1391" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1391" t="str">
-        <f>CONCATENATE(N358,P358,O358)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1392" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1392" t="str">
-        <f>CONCATENATE(N359,P359,O359)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1393" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1393" t="str">
-        <f>CONCATENATE(N360,P360,O360)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1394" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1394" t="str">
-        <f>CONCATENATE(N361,P361,O361)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1395" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1395" t="str">
-        <f>CONCATENATE(N362,P362,O362)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1396" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1396" t="str">
-        <f>CONCATENATE(N363,P363,O363)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1397" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1397" t="str">
-        <f>CONCATENATE(N364,P364,O364)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1398" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1398" t="str">
-        <f>CONCATENATE(N365,P365,O365)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1399" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1399" t="str">
-        <f>CONCATENATE(N366,P366,O366)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1400" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1400" t="str">
-        <f>CONCATENATE(N367,P367,O367)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1401" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1401" t="str">
-        <f>CONCATENATE(N368,P368,O368)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1402" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1402" t="str">
-        <f>CONCATENATE(N369,P369,O369)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1403" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1403" t="str">
-        <f>CONCATENATE(N370,P370,O370)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1404" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1404" t="str">
-        <f>CONCATENATE(N371,P371,O371)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1405" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1405" t="str">
-        <f>CONCATENATE(N372,P372,O372)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1406" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1406" t="str">
-        <f>CONCATENATE(N373,P373,O373)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1407" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1407" t="str">
-        <f>CONCATENATE(N374,P374,O374)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1408" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1408" t="str">
-        <f>CONCATENATE(N375,P375,O375)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1409" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1409" t="str">
-        <f>CONCATENATE(N376,P376,O376)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1410" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1410" t="str">
-        <f>CONCATENATE(N377,P377,O377)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1411" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1411" t="str">
-        <f>CONCATENATE(N378,P378,O378)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1412" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1412" t="str">
-        <f>CONCATENATE(N379,P379,O379)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1413" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1413" t="str">
-        <f>CONCATENATE(N380,P380,O380)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1414" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1414" t="str">
-        <f>CONCATENATE(N381,P381,O381)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1415" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1415" t="str">
-        <f>CONCATENATE(N382,P382,O382)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1416" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1416" t="str">
-        <f>CONCATENATE(N383,P383,O383)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1417" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1417" t="str">
-        <f>CONCATENATE(N384,P384,O384)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1418" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1418" t="str">
-        <f>CONCATENATE(N385,P385,O385)</f>
+        <f t="shared" si="40"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1419" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1419" t="str">
-        <f>CONCATENATE(N386,P386,O386)</f>
+        <f t="shared" ref="H1419:H1482" si="41">CONCATENATE(N386,P386,O386)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1420" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1420" t="str">
-        <f>CONCATENATE(N387,P387,O387)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1421" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1421" t="str">
-        <f>CONCATENATE(N388,P388,O388)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1422" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1422" t="str">
-        <f>CONCATENATE(N389,P389,O389)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1423" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1423" t="str">
-        <f>CONCATENATE(N390,P390,O390)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1424" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1424" t="str">
-        <f>CONCATENATE(N391,P391,O391)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1425" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1425" t="str">
-        <f>CONCATENATE(N392,P392,O392)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1426" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1426" t="str">
-        <f>CONCATENATE(N393,P393,O393)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1427" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1427" t="str">
-        <f>CONCATENATE(N394,P394,O394)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1428" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1428" t="str">
-        <f>CONCATENATE(N395,P395,O395)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1429" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1429" t="str">
-        <f>CONCATENATE(N396,P396,O396)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1430" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1430" t="str">
-        <f>CONCATENATE(N397,P397,O397)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1431" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1431" t="str">
-        <f>CONCATENATE(N398,P398,O398)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1432" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1432" t="str">
-        <f>CONCATENATE(N399,P399,O399)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1433" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1433" t="str">
-        <f>CONCATENATE(N400,P400,O400)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1434" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1434" t="str">
-        <f>CONCATENATE(N401,P401,O401)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1435" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1435" t="str">
-        <f>CONCATENATE(N402,P402,O402)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1436" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1436" t="str">
-        <f>CONCATENATE(N403,P403,O403)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1437" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1437" t="str">
-        <f>CONCATENATE(N404,P404,O404)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1438" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1438" t="str">
-        <f>CONCATENATE(N405,P405,O405)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1439" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1439" t="str">
-        <f>CONCATENATE(N406,P406,O406)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1440" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1440" t="str">
-        <f>CONCATENATE(N407,P407,O407)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1441" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1441" t="str">
-        <f>CONCATENATE(N408,P408,O408)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1442" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1442" t="str">
-        <f>CONCATENATE(N409,P409,O409)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1443" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1443" t="str">
-        <f>CONCATENATE(N410,P410,O410)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1444" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1444" t="str">
-        <f>CONCATENATE(N411,P411,O411)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1445" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1445" t="str">
-        <f>CONCATENATE(N412,P412,O412)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1446" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1446" t="str">
-        <f>CONCATENATE(N413,P413,O413)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1447" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1447" t="str">
-        <f>CONCATENATE(N414,P414,O414)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1448" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1448" t="str">
-        <f>CONCATENATE(N415,P415,O415)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1449" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1449" t="str">
-        <f>CONCATENATE(N416,P416,O416)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1450" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1450" t="str">
-        <f>CONCATENATE(N417,P417,O417)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1451" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1451" t="str">
-        <f>CONCATENATE(N418,P418,O418)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1452" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1452" t="str">
-        <f>CONCATENATE(N419,P419,O419)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1453" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1453" t="str">
-        <f>CONCATENATE(N420,P420,O420)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1454" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1454" t="str">
-        <f>CONCATENATE(N421,P421,O421)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1455" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1455" t="str">
-        <f>CONCATENATE(N422,P422,O422)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1456" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1456" t="str">
-        <f>CONCATENATE(N423,P423,O423)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1457" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1457" t="str">
-        <f>CONCATENATE(N424,P424,O424)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1458" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1458" t="str">
-        <f>CONCATENATE(N425,P425,O425)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1459" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1459" t="str">
-        <f>CONCATENATE(N426,P426,O426)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1460" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1460" t="str">
-        <f>CONCATENATE(N427,P427,O427)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1461" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1461" t="str">
-        <f>CONCATENATE(N428,P428,O428)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1462" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1462" t="str">
-        <f>CONCATENATE(N429,P429,O429)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1463" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1463" t="str">
-        <f>CONCATENATE(N430,P430,O430)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1464" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1464" t="str">
-        <f>CONCATENATE(N431,P431,O431)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1465" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1465" t="str">
-        <f>CONCATENATE(N432,P432,O432)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1466" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1466" t="str">
-        <f>CONCATENATE(N433,P433,O433)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1467" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1467" t="str">
-        <f>CONCATENATE(N434,P434,O434)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1468" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1468" t="str">
-        <f>CONCATENATE(N435,P435,O435)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1469" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1469" t="str">
-        <f>CONCATENATE(N436,P436,O436)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1470" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1470" t="str">
-        <f>CONCATENATE(N437,P437,O437)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1471" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1471" t="str">
-        <f>CONCATENATE(N438,P438,O438)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1472" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1472" t="str">
-        <f>CONCATENATE(N439,P439,O439)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1473" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1473" t="str">
-        <f>CONCATENATE(N440,P440,O440)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1474" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1474" t="str">
-        <f>CONCATENATE(N441,P441,O441)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1475" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1475" t="str">
-        <f>CONCATENATE(N442,P442,O442)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1476" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1476" t="str">
-        <f>CONCATENATE(N443,P443,O443)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1477" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1477" t="str">
-        <f>CONCATENATE(N444,P444,O444)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1478" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1478" t="str">
-        <f>CONCATENATE(N445,P445,O445)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1479" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1479" t="str">
-        <f>CONCATENATE(N446,P446,O446)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1480" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1480" t="str">
-        <f>CONCATENATE(N447,P447,O447)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1481" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1481" t="str">
-        <f>CONCATENATE(N448,P448,O448)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1482" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1482" t="str">
-        <f>CONCATENATE(N449,P449,O449)</f>
+        <f t="shared" si="41"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1483" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1483" t="str">
-        <f>CONCATENATE(N450,P450,O450)</f>
+        <f t="shared" ref="H1483:H1546" si="42">CONCATENATE(N450,P450,O450)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1484" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1484" t="str">
-        <f>CONCATENATE(N451,P451,O451)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1485" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1485" t="str">
-        <f>CONCATENATE(N452,P452,O452)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1486" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1486" t="str">
-        <f>CONCATENATE(N453,P453,O453)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1487" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1487" t="str">
-        <f>CONCATENATE(N454,P454,O454)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1488" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1488" t="str">
-        <f>CONCATENATE(N455,P455,O455)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1489" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1489" t="str">
-        <f>CONCATENATE(N456,P456,O456)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1490" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1490" t="str">
-        <f>CONCATENATE(N457,P457,O457)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1491" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1491" t="str">
-        <f>CONCATENATE(N458,P458,O458)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1492" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1492" t="str">
-        <f>CONCATENATE(N459,P459,O459)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1493" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1493" t="str">
-        <f>CONCATENATE(N460,P460,O460)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1494" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1494" t="str">
-        <f>CONCATENATE(N461,P461,O461)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1495" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1495" t="str">
-        <f>CONCATENATE(N462,P462,O462)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1496" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1496" t="str">
-        <f>CONCATENATE(N463,P463,O463)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1497" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1497" t="str">
-        <f>CONCATENATE(N464,P464,O464)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1498" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1498" t="str">
-        <f>CONCATENATE(N465,P465,O465)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1499" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1499" t="str">
-        <f>CONCATENATE(N466,P466,O466)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1500" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1500" t="str">
-        <f>CONCATENATE(N467,P467,O467)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1501" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1501" t="str">
-        <f>CONCATENATE(N468,P468,O468)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1502" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1502" t="str">
-        <f>CONCATENATE(N469,P469,O469)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1503" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1503" t="str">
-        <f>CONCATENATE(N470,P470,O470)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1504" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1504" t="str">
-        <f>CONCATENATE(N471,P471,O471)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1505" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1505" t="str">
-        <f>CONCATENATE(N472,P472,O472)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1506" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1506" t="str">
-        <f>CONCATENATE(N473,P473,O473)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1507" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1507" t="str">
-        <f>CONCATENATE(N474,P474,O474)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1508" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1508" t="str">
-        <f>CONCATENATE(N475,P475,O475)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1509" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1509" t="str">
-        <f>CONCATENATE(N476,P476,O476)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1510" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1510" t="str">
-        <f>CONCATENATE(N477,P477,O477)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1511" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1511" t="str">
-        <f>CONCATENATE(N478,P478,O478)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1512" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1512" t="str">
-        <f>CONCATENATE(N479,P479,O479)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1513" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1513" t="str">
-        <f>CONCATENATE(N480,P480,O480)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1514" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1514" t="str">
-        <f>CONCATENATE(N481,P481,O481)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1515" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1515" t="str">
-        <f>CONCATENATE(N482,P482,O482)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1516" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1516" t="str">
-        <f>CONCATENATE(N483,P483,O483)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1517" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1517" t="str">
-        <f>CONCATENATE(N484,P484,O484)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1518" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1518" t="str">
-        <f>CONCATENATE(N485,P485,O485)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1519" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1519" t="str">
-        <f>CONCATENATE(N486,P486,O486)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1520" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1520" t="str">
-        <f>CONCATENATE(N487,P487,O487)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1521" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1521" t="str">
-        <f>CONCATENATE(N488,P488,O488)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1522" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1522" t="str">
-        <f>CONCATENATE(N489,P489,O489)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1523" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1523" t="str">
-        <f>CONCATENATE(N490,P490,O490)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1524" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1524" t="str">
-        <f>CONCATENATE(N491,P491,O491)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1525" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1525" t="str">
-        <f>CONCATENATE(N492,P492,O492)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1526" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1526" t="str">
-        <f>CONCATENATE(N493,P493,O493)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1527" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1527" t="str">
-        <f>CONCATENATE(N494,P494,O494)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1528" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1528" t="str">
-        <f>CONCATENATE(N495,P495,O495)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1529" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1529" t="str">
-        <f>CONCATENATE(N496,P496,O496)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1530" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1530" t="str">
-        <f>CONCATENATE(N497,P497,O497)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1531" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1531" t="str">
-        <f>CONCATENATE(N498,P498,O498)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1532" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1532" t="str">
-        <f>CONCATENATE(N499,P499,O499)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1533" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1533" t="str">
-        <f>CONCATENATE(N500,P500,O500)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1534" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1534" t="str">
-        <f>CONCATENATE(N501,P501,O501)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1535" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1535" t="str">
-        <f>CONCATENATE(N502,P502,O502)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1536" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1536" t="str">
-        <f>CONCATENATE(N503,P503,O503)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1537" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1537" t="str">
-        <f>CONCATENATE(N504,P504,O504)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1538" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1538" t="str">
-        <f>CONCATENATE(N505,P505,O505)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1539" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1539" t="str">
-        <f>CONCATENATE(N506,P506,O506)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1540" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1540" t="str">
-        <f>CONCATENATE(N507,P507,O507)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1541" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1541" t="str">
-        <f>CONCATENATE(N508,P508,O508)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1542" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1542" t="str">
-        <f>CONCATENATE(N509,P509,O509)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1543" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1543" t="str">
-        <f>CONCATENATE(N510,P510,O510)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1544" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1544" t="str">
-        <f>CONCATENATE(N511,P511,O511)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1545" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1545" t="str">
-        <f>CONCATENATE(N512,P512,O512)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1546" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1546" t="str">
-        <f>CONCATENATE(N513,P513,O513)</f>
+        <f t="shared" si="42"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1547" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1547" t="str">
-        <f>CONCATENATE(N514,P514,O514)</f>
+        <f t="shared" ref="H1547:H1610" si="43">CONCATENATE(N514,P514,O514)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1548" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1548" t="str">
-        <f>CONCATENATE(N515,P515,O515)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1549" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1549" t="str">
-        <f>CONCATENATE(N516,P516,O516)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1550" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1550" t="str">
-        <f>CONCATENATE(N517,P517,O517)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1551" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1551" t="str">
-        <f>CONCATENATE(N518,P518,O518)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1552" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1552" t="str">
-        <f>CONCATENATE(N519,P519,O519)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1553" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1553" t="str">
-        <f>CONCATENATE(N520,P520,O520)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1554" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1554" t="str">
-        <f>CONCATENATE(N521,P521,O521)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1555" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1555" t="str">
-        <f>CONCATENATE(N522,P522,O522)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1556" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1556" t="str">
-        <f>CONCATENATE(N523,P523,O523)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1557" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1557" t="str">
-        <f>CONCATENATE(N524,P524,O524)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1558" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1558" t="str">
-        <f>CONCATENATE(N525,P525,O525)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1559" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1559" t="str">
-        <f>CONCATENATE(N526,P526,O526)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1560" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1560" t="str">
-        <f>CONCATENATE(N527,P527,O527)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1561" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1561" t="str">
-        <f>CONCATENATE(N528,P528,O528)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1562" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1562" t="str">
-        <f>CONCATENATE(N529,P529,O529)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1563" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1563" t="str">
-        <f>CONCATENATE(N530,P530,O530)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1564" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1564" t="str">
-        <f>CONCATENATE(N531,P531,O531)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1565" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1565" t="str">
-        <f>CONCATENATE(N532,P532,O532)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1566" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1566" t="str">
-        <f>CONCATENATE(N533,P533,O533)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1567" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1567" t="str">
-        <f>CONCATENATE(N534,P534,O534)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1568" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1568" t="str">
-        <f>CONCATENATE(N535,P535,O535)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1569" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1569" t="str">
-        <f>CONCATENATE(N536,P536,O536)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1570" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1570" t="str">
-        <f>CONCATENATE(N537,P537,O537)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1571" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1571" t="str">
-        <f>CONCATENATE(N538,P538,O538)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1572" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1572" t="str">
-        <f>CONCATENATE(N539,P539,O539)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1573" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1573" t="str">
-        <f>CONCATENATE(N540,P540,O540)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1574" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1574" t="str">
-        <f>CONCATENATE(N541,P541,O541)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1575" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1575" t="str">
-        <f>CONCATENATE(N542,P542,O542)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1576" t="str">
-        <f>CONCATENATE(N543,P543,O543)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1577" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1577" t="str">
-        <f>CONCATENATE(N544,P544,O544)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1578" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1578" t="str">
-        <f>CONCATENATE(N545,P545,O545)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1579" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1579" t="str">
-        <f>CONCATENATE(N546,P546,O546)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1580" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1580" t="str">
-        <f>CONCATENATE(N547,P547,O547)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1581" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1581" t="str">
-        <f>CONCATENATE(N548,P548,O548)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1582" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1582" t="str">
-        <f>CONCATENATE(N549,P549,O549)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1583" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1583" t="str">
-        <f>CONCATENATE(N550,P550,O550)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1584" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1584" t="str">
-        <f>CONCATENATE(N551,P551,O551)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1585" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1585" t="str">
-        <f>CONCATENATE(N552,P552,O552)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1586" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1586" t="str">
-        <f>CONCATENATE(N553,P553,O553)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1587" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1587" t="str">
-        <f>CONCATENATE(N554,P554,O554)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1588" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1588" t="str">
-        <f>CONCATENATE(N555,P555,O555)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1589" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1589" t="str">
-        <f>CONCATENATE(N556,P556,O556)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1590" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1590" t="str">
-        <f>CONCATENATE(N557,P557,O557)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1591" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1591" t="str">
-        <f>CONCATENATE(N558,P558,O558)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1592" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1592" t="str">
-        <f>CONCATENATE(N559,P559,O559)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1593" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1593" t="str">
-        <f>CONCATENATE(N560,P560,O560)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1594" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1594" t="str">
-        <f>CONCATENATE(N561,P561,O561)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1595" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1595" t="str">
-        <f>CONCATENATE(N562,P562,O562)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1596" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1596" t="str">
-        <f>CONCATENATE(N563,P563,O563)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1597" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1597" t="str">
-        <f>CONCATENATE(N564,P564,O564)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1598" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1598" t="str">
-        <f>CONCATENATE(N565,P565,O565)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1599" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1599" t="str">
-        <f>CONCATENATE(N566,P566,O566)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1600" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1600" t="str">
-        <f>CONCATENATE(N567,P567,O567)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1601" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1601" t="str">
-        <f>CONCATENATE(N568,P568,O568)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1602" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1602" t="str">
-        <f>CONCATENATE(N569,P569,O569)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1603" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1603" t="str">
-        <f>CONCATENATE(N570,P570,O570)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1604" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1604" t="str">
-        <f>CONCATENATE(N571,P571,O571)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1605" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1605" t="str">
-        <f>CONCATENATE(N572,P572,O572)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1606" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1606" t="str">
-        <f>CONCATENATE(N573,P573,O573)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1607" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1607" t="str">
-        <f>CONCATENATE(N574,P574,O574)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1608" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1608" t="str">
-        <f>CONCATENATE(N575,P575,O575)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1609" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1609" t="str">
-        <f>CONCATENATE(N576,P576,O576)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1610" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1610" t="str">
-        <f>CONCATENATE(N577,P577,O577)</f>
+        <f t="shared" si="43"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1611" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1611" t="str">
-        <f>CONCATENATE(N578,P578,O578)</f>
+        <f t="shared" ref="H1611:H1674" si="44">CONCATENATE(N578,P578,O578)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1612" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1612" t="str">
-        <f>CONCATENATE(N579,P579,O579)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1613" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1613" t="str">
-        <f>CONCATENATE(N580,P580,O580)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1614" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1614" t="str">
-        <f>CONCATENATE(N581,P581,O581)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1615" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1615" t="str">
-        <f>CONCATENATE(N582,P582,O582)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1616" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1616" t="str">
-        <f>CONCATENATE(N583,P583,O583)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1617" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1617" t="str">
-        <f>CONCATENATE(N584,P584,O584)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1618" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1618" t="str">
-        <f>CONCATENATE(N585,P585,O585)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1619" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1619" t="str">
-        <f>CONCATENATE(N586,P586,O586)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1620" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1620" t="str">
-        <f>CONCATENATE(N587,P587,O587)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1621" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1621" t="str">
-        <f>CONCATENATE(N588,P588,O588)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1622" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1622" t="str">
-        <f>CONCATENATE(N589,P589,O589)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1623" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1623" t="str">
-        <f>CONCATENATE(N590,P590,O590)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1624" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1624" t="str">
-        <f>CONCATENATE(N591,P591,O591)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1625" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1625" t="str">
-        <f>CONCATENATE(N592,P592,O592)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1626" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1626" t="str">
-        <f>CONCATENATE(N593,P593,O593)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1627" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1627" t="str">
-        <f>CONCATENATE(N594,P594,O594)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1628" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1628" t="str">
-        <f>CONCATENATE(N595,P595,O595)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1629" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1629" t="str">
-        <f>CONCATENATE(N596,P596,O596)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1630" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1630" t="str">
-        <f>CONCATENATE(N597,P597,O597)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1631" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1631" t="str">
-        <f>CONCATENATE(N598,P598,O598)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1632" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1632" t="str">
-        <f>CONCATENATE(N599,P599,O599)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1633" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1633" t="str">
-        <f>CONCATENATE(N600,P600,O600)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1634" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1634" t="str">
-        <f>CONCATENATE(N601,P601,O601)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1635" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1635" t="str">
-        <f>CONCATENATE(N602,P602,O602)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1636" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1636" t="str">
-        <f>CONCATENATE(N603,P603,O603)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1637" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1637" t="str">
-        <f>CONCATENATE(N604,P604,O604)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1638" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1638" t="str">
-        <f>CONCATENATE(N605,P605,O605)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1639" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1639" t="str">
-        <f>CONCATENATE(N606,P606,O606)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1640" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1640" t="str">
-        <f>CONCATENATE(N607,P607,O607)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1641" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1641" t="str">
-        <f>CONCATENATE(N608,P608,O608)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1642" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1642" t="str">
-        <f>CONCATENATE(N609,P609,O609)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1643" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1643" t="str">
-        <f>CONCATENATE(N610,P610,O610)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1644" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1644" t="str">
-        <f>CONCATENATE(N611,P611,O611)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1645" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1645" t="str">
-        <f>CONCATENATE(N612,P612,O612)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1646" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1646" t="str">
-        <f>CONCATENATE(N613,P613,O613)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1647" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1647" t="str">
-        <f>CONCATENATE(N614,P614,O614)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1648" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1648" t="str">
-        <f>CONCATENATE(N615,P615,O615)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1649" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1649" t="str">
-        <f>CONCATENATE(N616,P616,O616)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1650" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1650" t="str">
-        <f>CONCATENATE(N617,P617,O617)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1651" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1651" t="str">
-        <f>CONCATENATE(N618,P618,O618)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1652" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1652" t="str">
-        <f>CONCATENATE(N619,P619,O619)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1653" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1653" t="str">
-        <f>CONCATENATE(N620,P620,O620)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1654" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1654" t="str">
-        <f>CONCATENATE(N621,P621,O621)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1655" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1655" t="str">
-        <f>CONCATENATE(N622,P622,O622)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1656" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1656" t="str">
-        <f>CONCATENATE(N623,P623,O623)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1657" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1657" t="str">
-        <f>CONCATENATE(N624,P624,O624)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1658" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1658" t="str">
-        <f>CONCATENATE(N625,P625,O625)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1659" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1659" t="str">
-        <f>CONCATENATE(N626,P626,O626)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1660" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1660" t="str">
-        <f>CONCATENATE(N627,P627,O627)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1661" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1661" t="str">
-        <f>CONCATENATE(N628,P628,O628)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1662" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1662" t="str">
-        <f>CONCATENATE(N629,P629,O629)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1663" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1663" t="str">
-        <f>CONCATENATE(N630,P630,O630)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1664" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1664" t="str">
-        <f>CONCATENATE(N631,P631,O631)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1665" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1665" t="str">
-        <f>CONCATENATE(N632,P632,O632)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1666" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1666" t="str">
-        <f>CONCATENATE(N633,P633,O633)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1667" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1667" t="str">
-        <f>CONCATENATE(N634,P634,O634)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1668" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1668" t="str">
-        <f>CONCATENATE(N635,P635,O635)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1669" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1669" t="str">
-        <f>CONCATENATE(N636,P636,O636)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1670" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1670" t="str">
-        <f>CONCATENATE(N637,P637,O637)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1671" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1671" t="str">
-        <f>CONCATENATE(N638,P638,O638)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1672" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1672" t="str">
-        <f>CONCATENATE(N639,P639,O639)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1673" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1673" t="str">
-        <f>CONCATENATE(N640,P640,O640)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1674" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1674" t="str">
-        <f>CONCATENATE(N641,P641,O641)</f>
+        <f t="shared" si="44"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1675" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1675" t="str">
-        <f>CONCATENATE(N642,P642,O642)</f>
+        <f t="shared" ref="H1675:H1738" si="45">CONCATENATE(N642,P642,O642)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1676" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1676" t="str">
-        <f>CONCATENATE(N643,P643,O643)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1677" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1677" t="str">
-        <f>CONCATENATE(N644,P644,O644)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1678" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1678" t="str">
-        <f>CONCATENATE(N645,P645,O645)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1679" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1679" t="str">
-        <f>CONCATENATE(N646,P646,O646)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1680" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1680" t="str">
-        <f>CONCATENATE(N647,P647,O647)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1681" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1681" t="str">
-        <f>CONCATENATE(N648,P648,O648)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1682" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1682" t="str">
-        <f>CONCATENATE(N649,P649,O649)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1683" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1683" t="str">
-        <f>CONCATENATE(N650,P650,O650)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1684" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1684" t="str">
-        <f>CONCATENATE(N651,P651,O651)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1685" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1685" t="str">
-        <f>CONCATENATE(N652,P652,O652)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1686" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1686" t="str">
-        <f>CONCATENATE(N653,P653,O653)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1687" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1687" t="str">
-        <f>CONCATENATE(N654,P654,O654)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1688" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1688" t="str">
-        <f>CONCATENATE(N655,P655,O655)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1689" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1689" t="str">
-        <f>CONCATENATE(N656,P656,O656)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1690" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1690" t="str">
-        <f>CONCATENATE(N657,P657,O657)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1691" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1691" t="str">
-        <f>CONCATENATE(N658,P658,O658)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1692" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1692" t="str">
-        <f>CONCATENATE(N659,P659,O659)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1693" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1693" t="str">
-        <f>CONCATENATE(N660,P660,O660)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1694" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1694" t="str">
-        <f>CONCATENATE(N661,P661,O661)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1695" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1695" t="str">
-        <f>CONCATENATE(N662,P662,O662)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1696" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1696" t="str">
-        <f>CONCATENATE(N663,P663,O663)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1697" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1697" t="str">
-        <f>CONCATENATE(N664,P664,O664)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1698" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1698" t="str">
-        <f>CONCATENATE(N665,P665,O665)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1699" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1699" t="str">
-        <f>CONCATENATE(N666,P666,O666)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1700" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1700" t="str">
-        <f>CONCATENATE(N667,P667,O667)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1701" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1701" t="str">
-        <f>CONCATENATE(N668,P668,O668)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1702" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1702" t="str">
-        <f>CONCATENATE(N669,P669,O669)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1703" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1703" t="str">
-        <f>CONCATENATE(N670,P670,O670)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1704" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1704" t="str">
-        <f>CONCATENATE(N671,P671,O671)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1705" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1705" t="str">
-        <f>CONCATENATE(N672,P672,O672)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1706" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1706" t="str">
-        <f>CONCATENATE(N673,P673,O673)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1707" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1707" t="str">
-        <f>CONCATENATE(N674,P674,O674)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1708" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1708" t="str">
-        <f>CONCATENATE(N675,P675,O675)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1709" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1709" t="str">
-        <f>CONCATENATE(N676,P676,O676)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1710" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1710" t="str">
-        <f>CONCATENATE(N677,P677,O677)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1711" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1711" t="str">
-        <f>CONCATENATE(N678,P678,O678)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1712" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1712" t="str">
-        <f>CONCATENATE(N679,P679,O679)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1713" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1713" t="str">
-        <f>CONCATENATE(N680,P680,O680)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1714" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1714" t="str">
-        <f>CONCATENATE(N681,P681,O681)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1715" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1715" t="str">
-        <f>CONCATENATE(N682,P682,O682)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1716" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1716" t="str">
-        <f>CONCATENATE(N683,P683,O683)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1717" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1717" t="str">
-        <f>CONCATENATE(N684,P684,O684)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1718" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1718" t="str">
-        <f>CONCATENATE(N685,P685,O685)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1719" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1719" t="str">
-        <f>CONCATENATE(N686,P686,O686)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1720" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1720" t="str">
-        <f>CONCATENATE(N687,P687,O687)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1721" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1721" t="str">
-        <f>CONCATENATE(N688,P688,O688)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1722" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1722" t="str">
-        <f>CONCATENATE(N689,P689,O689)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1723" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1723" t="str">
-        <f>CONCATENATE(N690,P690,O690)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1724" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1724" t="str">
-        <f>CONCATENATE(N691,P691,O691)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1725" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1725" t="str">
-        <f>CONCATENATE(N692,P692,O692)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1726" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1726" t="str">
-        <f>CONCATENATE(N693,P693,O693)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1727" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1727" t="str">
-        <f>CONCATENATE(N694,P694,O694)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1728" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1728" t="str">
-        <f>CONCATENATE(N695,P695,O695)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1729" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1729" t="str">
-        <f>CONCATENATE(N696,P696,O696)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1730" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1730" t="str">
-        <f>CONCATENATE(N697,P697,O697)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1731" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1731" t="str">
-        <f>CONCATENATE(N698,P698,O698)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1732" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1732" t="str">
-        <f>CONCATENATE(N699,P699,O699)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1733" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1733" t="str">
-        <f>CONCATENATE(N700,P700,O700)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1734" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1734" t="str">
-        <f>CONCATENATE(N701,P701,O701)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1735" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1735" t="str">
-        <f>CONCATENATE(N702,P702,O702)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1736" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1736" t="str">
-        <f>CONCATENATE(N703,P703,O703)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1737" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1737" t="str">
-        <f>CONCATENATE(N704,P704,O704)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1738" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1738" t="str">
-        <f>CONCATENATE(N705,P705,O705)</f>
+        <f t="shared" si="45"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1739" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1739" t="str">
-        <f>CONCATENATE(N706,P706,O706)</f>
+        <f t="shared" ref="H1739:H1802" si="46">CONCATENATE(N706,P706,O706)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1740" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1740" t="str">
-        <f>CONCATENATE(N707,P707,O707)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1741" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1741" t="str">
-        <f>CONCATENATE(N708,P708,O708)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1742" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1742" t="str">
-        <f>CONCATENATE(N709,P709,O709)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1743" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1743" t="str">
-        <f>CONCATENATE(N710,P710,O710)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1744" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1744" t="str">
-        <f>CONCATENATE(N711,P711,O711)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1745" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1745" t="str">
-        <f>CONCATENATE(N712,P712,O712)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1746" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1746" t="str">
-        <f>CONCATENATE(N713,P713,O713)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1747" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1747" t="str">
-        <f>CONCATENATE(N714,P714,O714)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1748" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1748" t="str">
-        <f>CONCATENATE(N715,P715,O715)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1749" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1749" t="str">
-        <f>CONCATENATE(N716,P716,O716)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1750" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1750" t="str">
-        <f>CONCATENATE(N717,P717,O717)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1751" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1751" t="str">
-        <f>CONCATENATE(N718,P718,O718)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1752" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1752" t="str">
-        <f>CONCATENATE(N719,P719,O719)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1753" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1753" t="str">
-        <f>CONCATENATE(N720,P720,O720)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1754" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1754" t="str">
-        <f>CONCATENATE(N721,P721,O721)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1755" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1755" t="str">
-        <f>CONCATENATE(N722,P722,O722)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1756" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1756" t="str">
-        <f>CONCATENATE(N723,P723,O723)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1757" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1757" t="str">
-        <f>CONCATENATE(N724,P724,O724)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1758" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1758" t="str">
-        <f>CONCATENATE(N725,P725,O725)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1759" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1759" t="str">
-        <f>CONCATENATE(N726,P726,O726)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1760" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1760" t="str">
-        <f>CONCATENATE(N727,P727,O727)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1761" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1761" t="str">
-        <f>CONCATENATE(N728,P728,O728)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1762" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1762" t="str">
-        <f>CONCATENATE(N729,P729,O729)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1763" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1763" t="str">
-        <f>CONCATENATE(N730,P730,O730)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1764" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1764" t="str">
-        <f>CONCATENATE(N731,P731,O731)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1765" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1765" t="str">
-        <f>CONCATENATE(N732,P732,O732)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1766" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1766" t="str">
-        <f>CONCATENATE(N733,P733,O733)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1767" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1767" t="str">
-        <f>CONCATENATE(N734,P734,O734)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1768" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1768" t="str">
-        <f>CONCATENATE(N735,P735,O735)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1769" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1769" t="str">
-        <f>CONCATENATE(N736,P736,O736)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1770" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1770" t="str">
-        <f>CONCATENATE(N737,P737,O737)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1771" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1771" t="str">
-        <f>CONCATENATE(N738,P738,O738)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1772" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1772" t="str">
-        <f>CONCATENATE(N739,P739,O739)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1773" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1773" t="str">
-        <f>CONCATENATE(N740,P740,O740)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1774" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1774" t="str">
-        <f>CONCATENATE(N741,P741,O741)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1775" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1775" t="str">
-        <f>CONCATENATE(N742,P742,O742)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1776" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1776" t="str">
-        <f>CONCATENATE(N743,P743,O743)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1777" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1777" t="str">
-        <f>CONCATENATE(N744,P744,O744)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1778" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1778" t="str">
-        <f>CONCATENATE(N745,P745,O745)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1779" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1779" t="str">
-        <f>CONCATENATE(N746,P746,O746)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1780" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1780" t="str">
-        <f>CONCATENATE(N747,P747,O747)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1781" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1781" t="str">
-        <f>CONCATENATE(N748,P748,O748)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1782" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1782" t="str">
-        <f>CONCATENATE(N749,P749,O749)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1783" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1783" t="str">
-        <f>CONCATENATE(N750,P750,O750)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1784" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1784" t="str">
-        <f>CONCATENATE(N751,P751,O751)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1785" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1785" t="str">
-        <f>CONCATENATE(N752,P752,O752)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1786" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1786" t="str">
-        <f>CONCATENATE(N753,P753,O753)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1787" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1787" t="str">
-        <f>CONCATENATE(N754,P754,O754)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1788" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1788" t="str">
-        <f>CONCATENATE(N755,P755,O755)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1789" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1789" t="str">
-        <f>CONCATENATE(N756,P756,O756)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1790" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1790" t="str">
-        <f>CONCATENATE(N757,P757,O757)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1791" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1791" t="str">
-        <f>CONCATENATE(N758,P758,O758)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1792" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1792" t="str">
-        <f>CONCATENATE(N759,P759,O759)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1793" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1793" t="str">
-        <f>CONCATENATE(N760,P760,O760)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1794" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1794" t="str">
-        <f>CONCATENATE(N761,P761,O761)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1795" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1795" t="str">
-        <f>CONCATENATE(N762,P762,O762)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1796" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1796" t="str">
-        <f>CONCATENATE(N763,P763,O763)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1797" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1797" t="str">
-        <f>CONCATENATE(N764,P764,O764)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1798" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1798" t="str">
-        <f>CONCATENATE(N765,P765,O765)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1799" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1799" t="str">
-        <f>CONCATENATE(N766,P766,O766)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1800" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1800" t="str">
-        <f>CONCATENATE(N767,P767,O767)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1801" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1801" t="str">
-        <f>CONCATENATE(N768,P768,O768)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1802" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1802" t="str">
-        <f>CONCATENATE(N769,P769,O769)</f>
+        <f t="shared" si="46"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1803" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1803" t="str">
-        <f>CONCATENATE(N770,P770,O770)</f>
+        <f t="shared" ref="H1803:H1866" si="47">CONCATENATE(N770,P770,O770)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1804" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1804" t="str">
-        <f>CONCATENATE(N771,P771,O771)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1805" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1805" t="str">
-        <f>CONCATENATE(N772,P772,O772)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1806" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1806" t="str">
-        <f>CONCATENATE(N773,P773,O773)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1807" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1807" t="str">
-        <f>CONCATENATE(N774,P774,O774)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1808" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1808" t="str">
-        <f>CONCATENATE(N775,P775,O775)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1809" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1809" t="str">
-        <f>CONCATENATE(N776,P776,O776)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1810" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1810" t="str">
-        <f>CONCATENATE(N777,P777,O777)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1811" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1811" t="str">
-        <f>CONCATENATE(N778,P778,O778)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1812" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1812" t="str">
-        <f>CONCATENATE(N779,P779,O779)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1813" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1813" t="str">
-        <f>CONCATENATE(N780,P780,O780)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1814" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1814" t="str">
-        <f>CONCATENATE(N781,P781,O781)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1815" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1815" t="str">
-        <f>CONCATENATE(N782,P782,O782)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1816" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1816" t="str">
-        <f>CONCATENATE(N783,P783,O783)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1817" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1817" t="str">
-        <f>CONCATENATE(N784,P784,O784)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1818" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1818" t="str">
-        <f>CONCATENATE(N785,P785,O785)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1819" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1819" t="str">
-        <f>CONCATENATE(N786,P786,O786)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1820" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1820" t="str">
-        <f>CONCATENATE(N787,P787,O787)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1821" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1821" t="str">
-        <f>CONCATENATE(N788,P788,O788)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1822" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1822" t="str">
-        <f>CONCATENATE(N789,P789,O789)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1823" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1823" t="str">
-        <f>CONCATENATE(N790,P790,O790)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1824" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1824" t="str">
-        <f>CONCATENATE(N791,P791,O791)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1825" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1825" t="str">
-        <f>CONCATENATE(N792,P792,O792)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1826" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1826" t="str">
-        <f>CONCATENATE(N793,P793,O793)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1827" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1827" t="str">
-        <f>CONCATENATE(N794,P794,O794)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1828" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1828" t="str">
-        <f>CONCATENATE(N795,P795,O795)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1829" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1829" t="str">
-        <f>CONCATENATE(N796,P796,O796)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1830" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1830" t="str">
-        <f>CONCATENATE(N797,P797,O797)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1831" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1831" t="str">
-        <f>CONCATENATE(N798,P798,O798)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1832" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1832" t="str">
-        <f>CONCATENATE(N799,P799,O799)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1833" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1833" t="str">
-        <f>CONCATENATE(N800,P800,O800)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1834" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1834" t="str">
-        <f>CONCATENATE(N801,P801,O801)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1835" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1835" t="str">
-        <f>CONCATENATE(N802,P802,O802)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1836" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1836" t="str">
-        <f>CONCATENATE(N803,P803,O803)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1837" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1837" t="str">
-        <f>CONCATENATE(N804,P804,O804)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1838" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1838" t="str">
-        <f>CONCATENATE(N805,P805,O805)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1839" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1839" t="str">
-        <f>CONCATENATE(N806,P806,O806)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1840" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1840" t="str">
-        <f>CONCATENATE(N807,P807,O807)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1841" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1841" t="str">
-        <f>CONCATENATE(N808,P808,O808)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1842" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1842" t="str">
-        <f>CONCATENATE(N809,P809,O809)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1843" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1843" t="str">
-        <f>CONCATENATE(N810,P810,O810)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1844" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1844" t="str">
-        <f>CONCATENATE(N811,P811,O811)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1845" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1845" t="str">
-        <f>CONCATENATE(N812,P812,O812)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1846" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1846" t="str">
-        <f>CONCATENATE(N813,P813,O813)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1847" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1847" t="str">
-        <f>CONCATENATE(N814,P814,O814)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1848" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1848" t="str">
-        <f>CONCATENATE(N815,P815,O815)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1849" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1849" t="str">
-        <f>CONCATENATE(N816,P816,O816)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1850" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1850" t="str">
-        <f>CONCATENATE(N817,P817,O817)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1851" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1851" t="str">
-        <f>CONCATENATE(N818,P818,O818)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1852" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1852" t="str">
-        <f>CONCATENATE(N819,P819,O819)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1853" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1853" t="str">
-        <f>CONCATENATE(N820,P820,O820)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1854" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1854" t="str">
-        <f>CONCATENATE(N821,P821,O821)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1855" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1855" t="str">
-        <f>CONCATENATE(N822,P822,O822)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1856" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1856" t="str">
-        <f>CONCATENATE(N823,P823,O823)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1857" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1857" t="str">
-        <f>CONCATENATE(N824,P824,O824)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1858" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1858" t="str">
-        <f>CONCATENATE(N825,P825,O825)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1859" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1859" t="str">
-        <f>CONCATENATE(N826,P826,O826)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1860" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1860" t="str">
-        <f>CONCATENATE(N827,P827,O827)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1861" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1861" t="str">
-        <f>CONCATENATE(N828,P828,O828)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1862" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1862" t="str">
-        <f>CONCATENATE(N829,P829,O829)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1863" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1863" t="str">
-        <f>CONCATENATE(N830,P830,O830)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1864" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1864" t="str">
-        <f>CONCATENATE(N831,P831,O831)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1865" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1865" t="str">
-        <f>CONCATENATE(N832,P832,O832)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1866" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1866" t="str">
-        <f>CONCATENATE(N833,P833,O833)</f>
+        <f t="shared" si="47"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1867" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1867" t="str">
-        <f>CONCATENATE(N834,P834,O834)</f>
+        <f t="shared" ref="H1867:H1930" si="48">CONCATENATE(N834,P834,O834)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1868" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1868" t="str">
-        <f>CONCATENATE(N835,P835,O835)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1869" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1869" t="str">
-        <f>CONCATENATE(N836,P836,O836)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1870" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1870" t="str">
-        <f>CONCATENATE(N837,P837,O837)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1871" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1871" t="str">
-        <f>CONCATENATE(N838,P838,O838)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1872" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1872" t="str">
-        <f>CONCATENATE(N839,P839,O839)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1873" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1873" t="str">
-        <f>CONCATENATE(N840,P840,O840)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1874" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1874" t="str">
-        <f>CONCATENATE(N841,P841,O841)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1875" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1875" t="str">
-        <f>CONCATENATE(N842,P842,O842)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1876" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1876" t="str">
-        <f>CONCATENATE(N843,P843,O843)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1877" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1877" t="str">
-        <f>CONCATENATE(N844,P844,O844)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1878" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1878" t="str">
-        <f>CONCATENATE(N845,P845,O845)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1879" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1879" t="str">
-        <f>CONCATENATE(N846,P846,O846)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1880" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1880" t="str">
-        <f>CONCATENATE(N847,P847,O847)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1881" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1881" t="str">
-        <f>CONCATENATE(N848,P848,O848)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1882" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1882" t="str">
-        <f>CONCATENATE(N849,P849,O849)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1883" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1883" t="str">
-        <f>CONCATENATE(N850,P850,O850)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1884" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1884" t="str">
-        <f>CONCATENATE(N851,P851,O851)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1885" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1885" t="str">
-        <f>CONCATENATE(N852,P852,O852)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1886" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1886" t="str">
-        <f>CONCATENATE(N853,P853,O853)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1887" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1887" t="str">
-        <f>CONCATENATE(N854,P854,O854)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1888" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1888" t="str">
-        <f>CONCATENATE(N855,P855,O855)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1889" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1889" t="str">
-        <f>CONCATENATE(N856,P856,O856)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1890" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1890" t="str">
-        <f>CONCATENATE(N857,P857,O857)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1891" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1891" t="str">
-        <f>CONCATENATE(N858,P858,O858)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1892" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1892" t="str">
-        <f>CONCATENATE(N859,P859,O859)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1893" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1893" t="str">
-        <f>CONCATENATE(N860,P860,O860)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1894" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1894" t="str">
-        <f>CONCATENATE(N861,P861,O861)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1895" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1895" t="str">
-        <f>CONCATENATE(N862,P862,O862)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1896" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1896" t="str">
-        <f>CONCATENATE(N863,P863,O863)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1897" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1897" t="str">
-        <f>CONCATENATE(N864,P864,O864)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1898" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1898" t="str">
-        <f>CONCATENATE(N865,P865,O865)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1899" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1899" t="str">
-        <f>CONCATENATE(N866,P866,O866)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1900" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1900" t="str">
-        <f>CONCATENATE(N867,P867,O867)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1901" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1901" t="str">
-        <f>CONCATENATE(N868,P868,O868)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1902" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1902" t="str">
-        <f>CONCATENATE(N869,P869,O869)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1903" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1903" t="str">
-        <f>CONCATENATE(N870,P870,O870)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1904" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1904" t="str">
-        <f>CONCATENATE(N871,P871,O871)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1905" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1905" t="str">
-        <f>CONCATENATE(N872,P872,O872)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1906" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1906" t="str">
-        <f>CONCATENATE(N873,P873,O873)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1907" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1907" t="str">
-        <f>CONCATENATE(N874,P874,O874)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1908" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1908" t="str">
-        <f>CONCATENATE(N875,P875,O875)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1909" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1909" t="str">
-        <f>CONCATENATE(N876,P876,O876)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1910" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1910" t="str">
-        <f>CONCATENATE(N877,P877,O877)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1911" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1911" t="str">
-        <f>CONCATENATE(N878,P878,O878)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1912" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1912" t="str">
-        <f>CONCATENATE(N879,P879,O879)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1913" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1913" t="str">
-        <f>CONCATENATE(N880,P880,O880)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1914" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1914" t="str">
-        <f>CONCATENATE(N881,P881,O881)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1915" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1915" t="str">
-        <f>CONCATENATE(N882,P882,O882)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1916" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1916" t="str">
-        <f>CONCATENATE(N883,P883,O883)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1917" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1917" t="str">
-        <f>CONCATENATE(N884,P884,O884)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1918" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1918" t="str">
-        <f>CONCATENATE(N885,P885,O885)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1919" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1919" t="str">
-        <f>CONCATENATE(N886,P886,O886)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1920" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1920" t="str">
-        <f>CONCATENATE(N887,P887,O887)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1921" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1921" t="str">
-        <f>CONCATENATE(N888,P888,O888)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1922" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1922" t="str">
-        <f>CONCATENATE(N889,P889,O889)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1923" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1923" t="str">
-        <f>CONCATENATE(N890,P890,O890)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1924" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1924" t="str">
-        <f>CONCATENATE(N891,P891,O891)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1925" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1925" t="str">
-        <f>CONCATENATE(N892,P892,O892)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1926" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1926" t="str">
-        <f>CONCATENATE(N893,P893,O893)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1927" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1927" t="str">
-        <f>CONCATENATE(N894,P894,O894)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1928" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1928" t="str">
-        <f>CONCATENATE(N895,P895,O895)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1929" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1929" t="str">
-        <f>CONCATENATE(N896,P896,O896)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1930" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1930" t="str">
-        <f>CONCATENATE(N897,P897,O897)</f>
+        <f t="shared" si="48"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1931" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1931" t="str">
-        <f>CONCATENATE(N898,P898,O898)</f>
+        <f t="shared" ref="H1931:H1994" si="49">CONCATENATE(N898,P898,O898)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1932" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1932" t="str">
-        <f>CONCATENATE(N899,P899,O899)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1933" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1933" t="str">
-        <f>CONCATENATE(N900,P900,O900)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1934" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1934" t="str">
-        <f>CONCATENATE(N901,P901,O901)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1935" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1935" t="str">
-        <f>CONCATENATE(N902,P902,O902)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1936" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1936" t="str">
-        <f>CONCATENATE(N903,P903,O903)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1937" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1937" t="str">
-        <f>CONCATENATE(N904,P904,O904)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1938" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1938" t="str">
-        <f>CONCATENATE(N905,P905,O905)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1939" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1939" t="str">
-        <f>CONCATENATE(N906,P906,O906)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1940" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1940" t="str">
-        <f>CONCATENATE(N907,P907,O907)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1941" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1941" t="str">
-        <f>CONCATENATE(N908,P908,O908)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1942" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1942" t="str">
-        <f>CONCATENATE(N909,P909,O909)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1943" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1943" t="str">
-        <f>CONCATENATE(N910,P910,O910)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1944" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1944" t="str">
-        <f>CONCATENATE(N911,P911,O911)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1945" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1945" t="str">
-        <f>CONCATENATE(N912,P912,O912)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1946" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1946" t="str">
-        <f>CONCATENATE(N913,P913,O913)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1947" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1947" t="str">
-        <f>CONCATENATE(N914,P914,O914)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1948" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1948" t="str">
-        <f>CONCATENATE(N915,P915,O915)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1949" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1949" t="str">
-        <f>CONCATENATE(N916,P916,O916)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1950" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1950" t="str">
-        <f>CONCATENATE(N917,P917,O917)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1951" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1951" t="str">
-        <f>CONCATENATE(N918,P918,O918)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1952" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1952" t="str">
-        <f>CONCATENATE(N919,P919,O919)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1953" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1953" t="str">
-        <f>CONCATENATE(N920,P920,O920)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1954" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1954" t="str">
-        <f>CONCATENATE(N921,P921,O921)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1955" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1955" t="str">
-        <f>CONCATENATE(N922,P922,O922)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1956" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1956" t="str">
-        <f>CONCATENATE(N923,P923,O923)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1957" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1957" t="str">
-        <f>CONCATENATE(N924,P924,O924)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1958" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1958" t="str">
-        <f>CONCATENATE(N925,P925,O925)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1959" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1959" t="str">
-        <f>CONCATENATE(N926,P926,O926)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1960" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1960" t="str">
-        <f>CONCATENATE(N927,P927,O927)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1961" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1961" t="str">
-        <f>CONCATENATE(N928,P928,O928)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1962" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1962" t="str">
-        <f>CONCATENATE(N929,P929,O929)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1963" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1963" t="str">
-        <f>CONCATENATE(N930,P930,O930)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1964" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1964" t="str">
-        <f>CONCATENATE(N931,P931,O931)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1965" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1965" t="str">
-        <f>CONCATENATE(N932,P932,O932)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1966" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1966" t="str">
-        <f>CONCATENATE(N933,P933,O933)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1967" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1967" t="str">
-        <f>CONCATENATE(N934,P934,O934)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1968" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1968" t="str">
-        <f>CONCATENATE(N935,P935,O935)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1969" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1969" t="str">
-        <f>CONCATENATE(N936,P936,O936)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1970" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1970" t="str">
-        <f>CONCATENATE(N937,P937,O937)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1971" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1971" t="str">
-        <f>CONCATENATE(N938,P938,O938)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1972" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1972" t="str">
-        <f>CONCATENATE(N939,P939,O939)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1973" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1973" t="str">
-        <f>CONCATENATE(N940,P940,O940)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1974" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1974" t="str">
-        <f>CONCATENATE(N941,P941,O941)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1975" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1975" t="str">
-        <f>CONCATENATE(N942,P942,O942)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1976" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1976" t="str">
-        <f>CONCATENATE(N943,P943,O943)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1977" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1977" t="str">
-        <f>CONCATENATE(N944,P944,O944)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1978" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1978" t="str">
-        <f>CONCATENATE(N945,P945,O945)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1979" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1979" t="str">
-        <f>CONCATENATE(N946,P946,O946)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1980" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1980" t="str">
-        <f>CONCATENATE(N947,P947,O947)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1981" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1981" t="str">
-        <f>CONCATENATE(N948,P948,O948)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1982" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1982" t="str">
-        <f>CONCATENATE(N949,P949,O949)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1983" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1983" t="str">
-        <f>CONCATENATE(N950,P950,O950)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1984" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1984" t="str">
-        <f>CONCATENATE(N951,P951,O951)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1985" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1985" t="str">
-        <f>CONCATENATE(N952,P952,O952)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1986" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1986" t="str">
-        <f>CONCATENATE(N953,P953,O953)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1987" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1987" t="str">
-        <f>CONCATENATE(N954,P954,O954)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1988" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1988" t="str">
-        <f>CONCATENATE(N955,P955,O955)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1989" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1989" t="str">
-        <f>CONCATENATE(N956,P956,O956)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1990" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1990" t="str">
-        <f>CONCATENATE(N957,P957,O957)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1991" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1991" t="str">
-        <f>CONCATENATE(N958,P958,O958)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1992" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1992" t="str">
-        <f>CONCATENATE(N959,P959,O959)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1993" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1993" t="str">
-        <f>CONCATENATE(N960,P960,O960)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1994" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1994" t="str">
-        <f>CONCATENATE(N961,P961,O961)</f>
+        <f t="shared" si="49"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1995" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1995" t="str">
-        <f>CONCATENATE(N962,P962,O962)</f>
+        <f t="shared" ref="H1995:H2058" si="50">CONCATENATE(N962,P962,O962)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1996" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1996" t="str">
-        <f>CONCATENATE(N963,P963,O963)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1997" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1997" t="str">
-        <f>CONCATENATE(N964,P964,O964)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1998" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1998" t="str">
-        <f>CONCATENATE(N965,P965,O965)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="1999" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1999" t="str">
-        <f>CONCATENATE(N966,P966,O966)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2000" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2000" t="str">
-        <f>CONCATENATE(N967,P967,O967)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2001" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2001" t="str">
-        <f>CONCATENATE(N968,P968,O968)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2002" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2002" t="str">
-        <f>CONCATENATE(N969,P969,O969)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2003" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2003" t="str">
-        <f>CONCATENATE(N970,P970,O970)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2004" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2004" t="str">
-        <f>CONCATENATE(N971,P971,O971)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2005" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2005" t="str">
-        <f>CONCATENATE(N972,P972,O972)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2006" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2006" t="str">
-        <f>CONCATENATE(N973,P973,O973)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2007" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2007" t="str">
-        <f>CONCATENATE(N974,P974,O974)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2008" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2008" t="str">
-        <f>CONCATENATE(N975,P975,O975)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2009" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2009" t="str">
-        <f>CONCATENATE(N976,P976,O976)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2010" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2010" t="str">
-        <f>CONCATENATE(N977,P977,O977)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2011" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2011" t="str">
-        <f>CONCATENATE(N978,P978,O978)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2012" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2012" t="str">
-        <f>CONCATENATE(N979,P979,O979)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2013" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2013" t="str">
-        <f>CONCATENATE(N980,P980,O980)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2014" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2014" t="str">
-        <f>CONCATENATE(N981,P981,O981)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2015" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2015" t="str">
-        <f>CONCATENATE(N982,P982,O982)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2016" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2016" t="str">
-        <f>CONCATENATE(N983,P983,O983)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2017" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2017" t="str">
-        <f>CONCATENATE(N984,P984,O984)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2018" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2018" t="str">
-        <f>CONCATENATE(N985,P985,O985)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2019" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2019" t="str">
-        <f>CONCATENATE(N986,P986,O986)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2020" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2020" t="str">
-        <f>CONCATENATE(N987,P987,O987)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2021" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2021" t="str">
-        <f>CONCATENATE(N988,P988,O988)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2022" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2022" t="str">
-        <f>CONCATENATE(N989,P989,O989)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2023" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2023" t="str">
-        <f>CONCATENATE(N990,P990,O990)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2024" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2024" t="str">
-        <f>CONCATENATE(N991,P991,O991)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2025" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2025" t="str">
-        <f>CONCATENATE(N992,P992,O992)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2026" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2026" t="str">
-        <f>CONCATENATE(N993,P993,O993)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2027" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2027" t="str">
-        <f>CONCATENATE(N994,P994,O994)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2028" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2028" t="str">
-        <f>CONCATENATE(N995,P995,O995)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2029" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2029" t="str">
-        <f>CONCATENATE(N996,P996,O996)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2030" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2030" t="str">
-        <f>CONCATENATE(N997,P997,O997)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2031" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2031" t="str">
-        <f>CONCATENATE(N998,P998,O998)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2032" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2032" t="str">
-        <f>CONCATENATE(N999,P999,O999)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2033" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2033" t="str">
-        <f>CONCATENATE(N1000,P1000,O1000)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2034" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2034" t="str">
-        <f>CONCATENATE(N1001,P1001,O1001)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2035" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2035" t="str">
-        <f>CONCATENATE(N1002,P1002,O1002)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2036" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2036" t="str">
-        <f>CONCATENATE(N1003,P1003,O1003)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2037" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2037" t="str">
-        <f>CONCATENATE(N1004,P1004,O1004)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2038" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2038" t="str">
-        <f>CONCATENATE(N1005,P1005,O1005)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2039" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2039" t="str">
-        <f>CONCATENATE(N1006,P1006,O1006)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2040" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2040" t="str">
-        <f>CONCATENATE(N1007,P1007,O1007)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2041" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2041" t="str">
-        <f>CONCATENATE(N1008,P1008,O1008)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2042" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2042" t="str">
-        <f>CONCATENATE(N1009,P1009,O1009)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2043" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2043" t="str">
-        <f>CONCATENATE(N1010,P1010,O1010)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2044" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2044" t="str">
-        <f>CONCATENATE(N1011,P1011,O1011)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2045" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2045" t="str">
-        <f>CONCATENATE(N1012,P1012,O1012)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2046" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2046" t="str">
-        <f>CONCATENATE(N1013,P1013,O1013)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2047" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2047" t="str">
-        <f>CONCATENATE(N1014,P1014,O1014)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2048" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2048" t="str">
-        <f>CONCATENATE(N1015,P1015,O1015)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2049" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2049" t="str">
-        <f>CONCATENATE(N1016,P1016,O1016)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2050" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2050" t="str">
-        <f>CONCATENATE(N1017,P1017,O1017)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2051" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2051" t="str">
-        <f>CONCATENATE(N1018,P1018,O1018)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2052" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2052" t="str">
-        <f>CONCATENATE(N1019,P1019,O1019)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2053" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2053" t="str">
-        <f>CONCATENATE(N1020,P1020,O1020)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2054" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2054" t="str">
-        <f>CONCATENATE(N1021,P1021,O1021)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2055" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2055" t="str">
-        <f>CONCATENATE(N1022,P1022,O1022)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2056" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2056" t="str">
-        <f>CONCATENATE(N1023,P1023,O1023)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2057" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2057" t="str">
-        <f>CONCATENATE(N1024,P1024,O1024)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2058" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2058" t="str">
-        <f>CONCATENATE(N1025,P1025,O1025)</f>
+        <f t="shared" si="50"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2059" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2059" t="str">
-        <f>CONCATENATE(N1026,P1026,O1026)</f>
+        <f t="shared" ref="H2059:H2122" si="51">CONCATENATE(N1026,P1026,O1026)</f>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2060" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2060" t="str">
-        <f>CONCATENATE(N1027,P1027,O1027)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2061" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2061" t="str">
-        <f>CONCATENATE(N1028,P1028,O1028)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2062" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2062" t="str">
-        <f>CONCATENATE(N1029,P1029,O1029)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2063" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2063" t="str">
-        <f>CONCATENATE(N1030,P1030,O1030)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2064" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2064" t="str">
-        <f>CONCATENATE(N1031,P1031,O1031)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2065" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2065" t="str">
-        <f>CONCATENATE(N1032,P1032,O1032)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#66ff66"});</v>
       </c>
     </row>
     <row r="2066" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2066" t="str">
-        <f>CONCATENATE(N1033,P1033,O1033)</f>
+        <f t="shared" si="51"/>
         <v>colors.push({ "color": "#ff6666"});</v>
       </c>
     </row>
